--- a/wings.xlsx
+++ b/wings.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\enspect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -16,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +62,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +78,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -333,9 +342,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
